--- a/common-template/src/main/resources/excel/buff.xlsx
+++ b/common-template/src/main/resources/excel/buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>int</t>
   </si>
@@ -71,13 +71,16 @@
     <t>1,1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 40,1,1000;110,0,1000</t>
+    <t>40*1*1000,110*0*1000</t>
   </si>
   <si>
     <t>测试阶段buff, 生命提高1000%, 回血量加1000</t>
   </si>
   <si>
-    <t>1,3</t>
+    <t>1*3</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>持续三回合30%反伤, 多次效果回合数累加</t>
@@ -86,7 +89,7 @@
     <t>1,4</t>
   </si>
   <si>
-    <t>80,0,10;10,1</t>
+    <t>80*0*10,10*1</t>
   </si>
   <si>
     <t>施加泯灭效果(受到伤害提升10%), 每回合受到当前生命值x层数x1%的伤害, 多次效果层数累加</t>
@@ -1266,8 +1269,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1345,7 +1348,7 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1360,20 +1363,20 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>30</v>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4"/>
     </row>
@@ -1384,20 +1387,20 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5"/>
     </row>
